--- a/Excel/Misccard.xlsx
+++ b/Excel/Misccard.xlsx
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BG7" sqref="BG7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
